--- a/test/results/01.BasicCodonUsage/NS1/NS1.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/NS1/NS1.RSCU.xlsx
@@ -253,28 +253,28 @@
     <t>TAT</t>
   </si>
   <si>
+    <t>KF383118</t>
+  </si>
+  <si>
     <t>LC002520</t>
+  </si>
+  <si>
+    <t>KU955594</t>
   </si>
   <si>
     <t>KF383119</t>
   </si>
   <si>
-    <t>KU955594</t>
-  </si>
-  <si>
-    <t>KF383118</t>
+    <t>KF383115</t>
   </si>
   <si>
     <t>KF268949</t>
   </si>
   <si>
-    <t>KF383115</t>
+    <t>KF268948</t>
   </si>
   <si>
     <t>KF268950</t>
-  </si>
-  <si>
-    <t>KF268948</t>
   </si>
   <si>
     <t>HQ234500</t>
@@ -289,10 +289,10 @@
     <t>KU955595</t>
   </si>
   <si>
-    <t>KU955591</t>
+    <t>KU955592</t>
   </si>
   <si>
-    <t>KU955592</t>
+    <t>KU955591</t>
   </si>
   <si>
     <t>KX601166</t>
@@ -301,25 +301,25 @@
     <t>KF383117</t>
   </si>
   <si>
+    <t>KU681082</t>
+  </si>
+  <si>
     <t>HQ234499</t>
+  </si>
+  <si>
+    <t>EU545988</t>
   </si>
   <si>
     <t>KU955593</t>
   </si>
   <si>
-    <t>EU545988</t>
-  </si>
-  <si>
-    <t>KU681082</t>
-  </si>
-  <si>
     <t>KX694532</t>
   </si>
   <si>
-    <t>KX813683</t>
+    <t>KU681081</t>
   </si>
   <si>
-    <t>KU681081</t>
+    <t>KX813683</t>
   </si>
   <si>
     <t>KX447517</t>
@@ -328,13 +328,13 @@
     <t>KU744693</t>
   </si>
   <si>
-    <t>KU509998</t>
-  </si>
-  <si>
     <t>KX197192</t>
   </si>
   <si>
     <t>KU321639</t>
+  </si>
+  <si>
+    <t>KU509998</t>
   </si>
   <si>
     <t>KU527068</t>
@@ -343,22 +343,22 @@
     <t>KX051563</t>
   </si>
   <si>
+    <t>KX838906</t>
+  </si>
+  <si>
     <t>KX673530</t>
   </si>
   <si>
-    <t>KX838906</t>
+    <t>KX838904</t>
   </si>
   <si>
-    <t>KX842449</t>
+    <t>KX832731</t>
   </si>
   <si>
     <t>KX838905</t>
   </si>
   <si>
-    <t>KX832731</t>
-  </si>
-  <si>
-    <t>KX838904</t>
+    <t>KX842449</t>
   </si>
   <si>
     <t>KU853012</t>
@@ -403,10 +403,10 @@
     <t>KU937936</t>
   </si>
   <si>
-    <t>KU312312</t>
+    <t>KU365779</t>
   </si>
   <si>
-    <t>KU365779</t>
+    <t>KU312312</t>
   </si>
   <si>
     <t>KU707826</t>
@@ -445,10 +445,10 @@
     <t>KX446951</t>
   </si>
   <si>
-    <t>KU940228</t>
+    <t>KX520666</t>
   </si>
   <si>
-    <t>KX520666</t>
+    <t>KU940228</t>
   </si>
   <si>
     <t>KU729218</t>
@@ -472,16 +472,13 @@
     <t>KU922923</t>
   </si>
   <si>
+    <t>KX198135</t>
+  </si>
+  <si>
     <t>KU922960</t>
   </si>
   <si>
-    <t>KX198135</t>
-  </si>
-  <si>
     <t>KX702400</t>
-  </si>
-  <si>
-    <t>KX087102</t>
   </si>
   <si>
     <t>KX247646</t>
@@ -490,16 +487,19 @@
     <t>KU820897</t>
   </si>
   <si>
+    <t>KX087102</t>
+  </si>
+  <si>
     <t>KX156775</t>
   </si>
   <si>
     <t>KX156774</t>
   </si>
   <si>
-    <t>KX156776</t>
+    <t>KX447510</t>
   </si>
   <si>
-    <t>KX447510</t>
+    <t>KX156776</t>
   </si>
   <si>
     <t>KX447511</t>
@@ -517,10 +517,10 @@
     <t>KX117076</t>
   </si>
   <si>
-    <t>KU955589</t>
+    <t>KU866423</t>
   </si>
   <si>
-    <t>KU866423</t>
+    <t>KU955589</t>
   </si>
   <si>
     <t>KX266255</t>
@@ -1225,10 +1225,10 @@
         <v>0.8</v>
       </c>
       <c r="J4">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="K4">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="L4">
         <v>0.67</v>
@@ -1249,10 +1249,10 @@
         <v>0.59</v>
       </c>
       <c r="R4">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="S4">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="T4">
         <v>0.6899999999999999</v>
@@ -1264,10 +1264,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W4">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="X4">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Y4">
         <v>0.55</v>
@@ -1363,19 +1363,19 @@
         <v>0.53</v>
       </c>
       <c r="BD4">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="BE4">
         <v>1.33</v>
       </c>
       <c r="BF4">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="BG4">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="BH4">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:60">
@@ -1407,10 +1407,10 @@
         <v>0.8</v>
       </c>
       <c r="J5">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="K5">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L5">
         <v>0.67</v>
@@ -1419,22 +1419,22 @@
         <v>1.33</v>
       </c>
       <c r="N5">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="O5">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="P5">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="Q5">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="R5">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="S5">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="T5">
         <v>0.6899999999999999</v>
@@ -1494,19 +1494,19 @@
         <v>0.5</v>
       </c>
       <c r="AM5">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AN5">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="AO5">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="AP5">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="AQ5">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1545,19 +1545,19 @@
         <v>0.53</v>
       </c>
       <c r="BD5">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="BE5">
         <v>1.33</v>
       </c>
       <c r="BF5">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="BG5">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="BH5">
-        <v>1</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6" spans="1:60">
@@ -1783,16 +1783,16 @@
         <v>1.33</v>
       </c>
       <c r="N7">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="O7">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="P7">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="Q7">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="R7">
         <v>1.67</v>
@@ -1810,10 +1810,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W7">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="X7">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="Y7">
         <v>0.55</v>
@@ -1858,19 +1858,19 @@
         <v>0.5</v>
       </c>
       <c r="AM7">
-        <v>2.64</v>
+        <v>2.77</v>
       </c>
       <c r="AN7">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AO7">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AP7">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AQ7">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -1929,13 +1929,13 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
         <v>0.8</v>
@@ -1953,10 +1953,10 @@
         <v>0.93</v>
       </c>
       <c r="J8">
+        <v>0.97</v>
+      </c>
+      <c r="K8">
         <v>1.03</v>
-      </c>
-      <c r="K8">
-        <v>0.97</v>
       </c>
       <c r="L8">
         <v>0.89</v>
@@ -1965,22 +1965,22 @@
         <v>1.11</v>
       </c>
       <c r="N8">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="O8">
         <v>0.74</v>
       </c>
       <c r="P8">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="Q8">
         <v>0.59</v>
       </c>
       <c r="R8">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="S8">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="T8">
         <v>0.75</v>
@@ -1992,10 +1992,10 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="Y8">
         <v>0.82</v>
@@ -2004,7 +2004,7 @@
         <v>0.82</v>
       </c>
       <c r="AA8">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="AB8">
         <v>0.82</v>
@@ -2013,7 +2013,7 @@
         <v>0.82</v>
       </c>
       <c r="AD8">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -2025,58 +2025,58 @@
         <v>2.11</v>
       </c>
       <c r="AH8">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AI8">
         <v>0.21</v>
       </c>
       <c r="AJ8">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
       <c r="AK8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>3.23</v>
+        <v>3.36</v>
       </c>
       <c r="AN8">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AO8">
+        <v>0.24</v>
+      </c>
+      <c r="AP8">
+        <v>0.24</v>
+      </c>
+      <c r="AQ8">
+        <v>0.24</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0.46</v>
+      </c>
+      <c r="AT8">
+        <v>1.85</v>
+      </c>
+      <c r="AU8">
+        <v>1.85</v>
+      </c>
+      <c r="AV8">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AW8">
         <v>0.23</v>
       </c>
-      <c r="AP8">
-        <v>0.23</v>
-      </c>
-      <c r="AQ8">
-        <v>0.23</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0.48</v>
-      </c>
-      <c r="AT8">
-        <v>1.68</v>
-      </c>
-      <c r="AU8">
-        <v>1.68</v>
-      </c>
-      <c r="AV8">
-        <v>0.72</v>
-      </c>
-      <c r="AW8">
-        <v>0.48</v>
-      </c>
       <c r="AX8">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AY8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AZ8">
         <v>0.8</v>
@@ -2085,7 +2085,7 @@
         <v>0.4</v>
       </c>
       <c r="BB8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BC8">
         <v>0.4</v>
@@ -2111,13 +2111,13 @@
         <v>84</v>
       </c>
       <c r="B9">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E9">
         <v>0.8</v>
@@ -2135,10 +2135,10 @@
         <v>0.93</v>
       </c>
       <c r="J9">
+        <v>1.03</v>
+      </c>
+      <c r="K9">
         <v>0.97</v>
-      </c>
-      <c r="K9">
-        <v>1.03</v>
       </c>
       <c r="L9">
         <v>0.89</v>
@@ -2147,22 +2147,22 @@
         <v>1.11</v>
       </c>
       <c r="N9">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="O9">
         <v>0.74</v>
       </c>
       <c r="P9">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="Q9">
         <v>0.59</v>
       </c>
       <c r="R9">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="S9">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="T9">
         <v>0.75</v>
@@ -2174,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>0.82</v>
@@ -2186,7 +2186,7 @@
         <v>0.82</v>
       </c>
       <c r="AA9">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="AB9">
         <v>0.82</v>
@@ -2195,7 +2195,7 @@
         <v>0.82</v>
       </c>
       <c r="AD9">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="AE9">
         <v>1</v>
@@ -2207,58 +2207,58 @@
         <v>2.11</v>
       </c>
       <c r="AH9">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AI9">
         <v>0.21</v>
       </c>
       <c r="AJ9">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AM9">
-        <v>3.36</v>
+        <v>3.23</v>
       </c>
       <c r="AN9">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="AO9">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AP9">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AQ9">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AR9">
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="AT9">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AU9">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AV9">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="AW9">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="AX9">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="AY9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AZ9">
         <v>0.8</v>
@@ -2267,7 +2267,7 @@
         <v>0.4</v>
       </c>
       <c r="BB9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BC9">
         <v>0.4</v>
@@ -4113,22 +4113,22 @@
         <v>95</v>
       </c>
       <c r="B20">
-        <v>2.11</v>
+        <v>1.89</v>
       </c>
       <c r="C20">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.84</v>
+        <v>1.26</v>
       </c>
       <c r="F20">
+        <v>1.17</v>
+      </c>
+      <c r="G20">
         <v>0.83</v>
-      </c>
-      <c r="G20">
-        <v>1.17</v>
       </c>
       <c r="H20">
         <v>0.75</v>
@@ -4137,10 +4137,10 @@
         <v>1.25</v>
       </c>
       <c r="J20">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="K20">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="L20">
         <v>0.89</v>
@@ -4149,31 +4149,31 @@
         <v>1.11</v>
       </c>
       <c r="N20">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="O20">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="P20">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="Q20">
-        <v>0.59</v>
+        <v>0.44</v>
       </c>
       <c r="R20">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="S20">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="T20">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="U20">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="V20">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="W20">
         <v>0.64</v>
@@ -4182,19 +4182,19 @@
         <v>1.36</v>
       </c>
       <c r="Y20">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="Z20">
-        <v>0.82</v>
+        <v>1.09</v>
       </c>
       <c r="AA20">
         <v>2.45</v>
       </c>
       <c r="AB20">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="AC20">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
       <c r="AD20">
         <v>0.82</v>
@@ -4206,46 +4206,46 @@
         <v>0.33</v>
       </c>
       <c r="AG20">
+        <v>2.11</v>
+      </c>
+      <c r="AH20">
         <v>1.26</v>
       </c>
-      <c r="AH20">
-        <v>0.84</v>
-      </c>
       <c r="AI20">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
-        <v>1.05</v>
+        <v>0.63</v>
       </c>
       <c r="AK20">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AM20">
+        <v>2.88</v>
+      </c>
+      <c r="AN20">
         <v>2.4</v>
       </c>
-      <c r="AN20">
-        <v>2.88</v>
-      </c>
       <c r="AO20">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AP20">
         <v>0</v>
       </c>
       <c r="AQ20">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="AR20">
         <v>0.24</v>
       </c>
       <c r="AS20">
-        <v>0.92</v>
+        <v>1.15</v>
       </c>
       <c r="AT20">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AU20">
         <v>1.38</v>
@@ -4260,34 +4260,34 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AY20">
+        <v>2.2</v>
+      </c>
+      <c r="AZ20">
+        <v>0.4</v>
+      </c>
+      <c r="BA20">
+        <v>0.4</v>
+      </c>
+      <c r="BB20">
+        <v>1</v>
+      </c>
+      <c r="BC20">
+        <v>0.67</v>
+      </c>
+      <c r="BD20">
+        <v>1.2</v>
+      </c>
+      <c r="BE20">
         <v>1.6</v>
       </c>
-      <c r="AZ20">
-        <v>0.8</v>
-      </c>
-      <c r="BA20">
-        <v>0.8</v>
-      </c>
-      <c r="BB20">
-        <v>0.8</v>
-      </c>
-      <c r="BC20">
+      <c r="BF20">
         <v>0.53</v>
       </c>
-      <c r="BD20">
-        <v>1.07</v>
-      </c>
-      <c r="BE20">
-        <v>1.73</v>
-      </c>
-      <c r="BF20">
-        <v>0.67</v>
-      </c>
       <c r="BG20">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="BH20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:60">
@@ -4295,22 +4295,22 @@
         <v>96</v>
       </c>
       <c r="B21">
-        <v>1.89</v>
+        <v>2.11</v>
       </c>
       <c r="C21">
+        <v>1.05</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>0.84</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1.26</v>
-      </c>
       <c r="F21">
+        <v>0.83</v>
+      </c>
+      <c r="G21">
         <v>1.17</v>
-      </c>
-      <c r="G21">
-        <v>0.83</v>
       </c>
       <c r="H21">
         <v>0.75</v>
@@ -4325,10 +4325,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="L21">
+        <v>0.89</v>
+      </c>
+      <c r="M21">
         <v>1.11</v>
-      </c>
-      <c r="M21">
-        <v>0.89</v>
       </c>
       <c r="N21">
         <v>1.33</v>
@@ -4343,16 +4343,16 @@
         <v>0.59</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="T21">
-        <v>0.6899999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="U21">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="V21">
         <v>0.6899999999999999</v>
@@ -4364,19 +4364,19 @@
         <v>1.36</v>
       </c>
       <c r="Y21">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="Z21">
-        <v>1.09</v>
+        <v>0.82</v>
       </c>
       <c r="AA21">
         <v>2.45</v>
       </c>
       <c r="AB21">
+        <v>0.82</v>
+      </c>
+      <c r="AC21">
         <v>0.55</v>
-      </c>
-      <c r="AC21">
-        <v>0.82</v>
       </c>
       <c r="AD21">
         <v>0.82</v>
@@ -4388,28 +4388,28 @@
         <v>0.33</v>
       </c>
       <c r="AG21">
-        <v>2.11</v>
+        <v>1.26</v>
       </c>
       <c r="AH21">
-        <v>1.26</v>
+        <v>0.84</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="AJ21">
-        <v>0.63</v>
+        <v>1.05</v>
       </c>
       <c r="AK21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="AN21">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -4433,43 +4433,43 @@
         <v>1.38</v>
       </c>
       <c r="AV21">
-        <v>0.6899999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AW21">
         <v>0.6899999999999999</v>
       </c>
       <c r="AX21">
-        <v>0.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AY21">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AZ21">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="BA21">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="BB21">
         <v>0.8</v>
       </c>
       <c r="BC21">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="BD21">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="BE21">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="BF21">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="BG21">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="BH21">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:60">
@@ -4683,43 +4683,43 @@
         <v>1.25</v>
       </c>
       <c r="J23">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="K23">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L23">
+        <v>1.11</v>
+      </c>
+      <c r="M23">
         <v>0.89</v>
       </c>
-      <c r="M23">
-        <v>1.11</v>
-      </c>
       <c r="N23">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="O23">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="P23">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="Q23">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="R23">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="U23">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="V23">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W23">
         <v>0.64</v>
@@ -4770,64 +4770,64 @@
         <v>0.5</v>
       </c>
       <c r="AM23">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="AN23">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="AO23">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AP23">
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="AR23">
         <v>0.24</v>
       </c>
       <c r="AS23">
-        <v>1.15</v>
+        <v>0.92</v>
       </c>
       <c r="AT23">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AU23">
         <v>1.38</v>
       </c>
       <c r="AV23">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AW23">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AX23">
         <v>0.92</v>
-      </c>
-      <c r="AW23">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AX23">
-        <v>0.6899999999999999</v>
       </c>
       <c r="AY23">
         <v>2.2</v>
       </c>
       <c r="AZ23">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="BA23">
         <v>0.4</v>
       </c>
       <c r="BB23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BC23">
-        <v>0.67</v>
+        <v>0.55</v>
       </c>
       <c r="BD23">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="BE23">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="BF23">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="BG23">
         <v>1.25</v>
@@ -5023,16 +5023,16 @@
         <v>100</v>
       </c>
       <c r="B25">
-        <v>2.11</v>
+        <v>1.88</v>
       </c>
       <c r="C25">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="F25">
         <v>1.17</v>
@@ -5047,10 +5047,10 @@
         <v>1.25</v>
       </c>
       <c r="J25">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>1.11</v>
@@ -5086,43 +5086,43 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W25">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="X25">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y25">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="Z25">
         <v>1.09</v>
       </c>
       <c r="AA25">
-        <v>2.73</v>
+        <v>2.45</v>
       </c>
       <c r="AB25">
         <v>0.55</v>
       </c>
       <c r="AC25">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="AD25">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
       <c r="AE25">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AF25">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AG25">
-        <v>1.68</v>
+        <v>2.11</v>
       </c>
       <c r="AH25">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AI25">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
         <v>0.63</v>
@@ -5134,10 +5134,10 @@
         <v>0.5</v>
       </c>
       <c r="AM25">
-        <v>2.88</v>
+        <v>2.77</v>
       </c>
       <c r="AN25">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="AQ25">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="AR25">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AS25">
         <v>0.92</v>
@@ -5182,16 +5182,16 @@
         <v>0.8</v>
       </c>
       <c r="BC25">
-        <v>0.55</v>
+        <v>0.77</v>
       </c>
       <c r="BD25">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="BE25">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="BF25">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="BG25">
         <v>1.25</v>
@@ -5205,16 +5205,16 @@
         <v>101</v>
       </c>
       <c r="B26">
-        <v>1.88</v>
+        <v>2.11</v>
       </c>
       <c r="C26">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="F26">
         <v>1.17</v>
@@ -5229,10 +5229,10 @@
         <v>1.25</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L26">
         <v>1.11</v>
@@ -5268,43 +5268,43 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W26">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="X26">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y26">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="Z26">
         <v>1.09</v>
       </c>
       <c r="AA26">
-        <v>2.45</v>
+        <v>2.73</v>
       </c>
       <c r="AB26">
         <v>0.55</v>
       </c>
       <c r="AC26">
+        <v>0.82</v>
+      </c>
+      <c r="AD26">
         <v>0.55</v>
       </c>
-      <c r="AD26">
-        <v>0.82</v>
-      </c>
       <c r="AE26">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AF26">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AG26">
-        <v>2.11</v>
+        <v>1.68</v>
       </c>
       <c r="AH26">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AJ26">
         <v>0.63</v>
@@ -5316,10 +5316,10 @@
         <v>0.5</v>
       </c>
       <c r="AM26">
-        <v>2.77</v>
+        <v>2.88</v>
       </c>
       <c r="AN26">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -5328,10 +5328,10 @@
         <v>0</v>
       </c>
       <c r="AQ26">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="AR26">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="AS26">
         <v>0.92</v>
@@ -5364,16 +5364,16 @@
         <v>0.8</v>
       </c>
       <c r="BC26">
-        <v>0.77</v>
+        <v>0.55</v>
       </c>
       <c r="BD26">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
       <c r="BE26">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="BF26">
-        <v>0.77</v>
+        <v>0.97</v>
       </c>
       <c r="BG26">
         <v>1.25</v>
@@ -5787,16 +5787,16 @@
         <v>0.89</v>
       </c>
       <c r="N29">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="O29">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="P29">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q29">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="R29">
         <v>1.23</v>
@@ -5862,10 +5862,10 @@
         <v>0.5</v>
       </c>
       <c r="AM29">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="AN29">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -5874,10 +5874,10 @@
         <v>0</v>
       </c>
       <c r="AQ29">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="AS29">
         <v>1.15</v>
@@ -5969,16 +5969,16 @@
         <v>0.89</v>
       </c>
       <c r="N30">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="O30">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="P30">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q30">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="R30">
         <v>1.23</v>
@@ -6044,10 +6044,10 @@
         <v>0.5</v>
       </c>
       <c r="AM30">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="AN30">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -6056,10 +6056,10 @@
         <v>0</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="AR30">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AS30">
         <v>1.15</v>
@@ -6691,10 +6691,10 @@
         <v>1.06</v>
       </c>
       <c r="L34">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="M34">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="N34">
         <v>1.33</v>
@@ -6873,10 +6873,10 @@
         <v>1.06</v>
       </c>
       <c r="L35">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="M35">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="N35">
         <v>1.33</v>
@@ -10448,13 +10448,13 @@
         <v>0.92</v>
       </c>
       <c r="AY54">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AZ54">
         <v>0.6</v>
       </c>
       <c r="BA54">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BB54">
         <v>0.8</v>
@@ -10630,13 +10630,13 @@
         <v>0.92</v>
       </c>
       <c r="AY55">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AZ55">
         <v>0.6</v>
       </c>
       <c r="BA55">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="BB55">
         <v>0.8</v>
@@ -14550,10 +14550,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W77">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="X77">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="Y77">
         <v>0.27</v>
@@ -14732,10 +14732,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W78">
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
       <c r="X78">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="Y78">
         <v>0.27</v>
@@ -15955,10 +15955,10 @@
         <v>1.11</v>
       </c>
       <c r="F85">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="G85">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="H85">
         <v>0.75</v>
@@ -15967,10 +15967,10 @@
         <v>1.25</v>
       </c>
       <c r="J85">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K85">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="L85">
         <v>1.11</v>
@@ -16006,10 +16006,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W85">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="X85">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="Y85">
         <v>0.27</v>
@@ -16054,10 +16054,10 @@
         <v>0.5</v>
       </c>
       <c r="AM85">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AN85">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AO85">
         <v>0</v>
@@ -16066,10 +16066,10 @@
         <v>0</v>
       </c>
       <c r="AQ85">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="AR85">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AS85">
         <v>1.15</v>
@@ -16137,10 +16137,10 @@
         <v>1.11</v>
       </c>
       <c r="F86">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="G86">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="H86">
         <v>0.75</v>
@@ -16149,10 +16149,10 @@
         <v>1.25</v>
       </c>
       <c r="J86">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="K86">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="L86">
         <v>1.11</v>
@@ -16188,10 +16188,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W86">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="X86">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="Y86">
         <v>0.27</v>
@@ -16236,10 +16236,10 @@
         <v>0.5</v>
       </c>
       <c r="AM86">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AN86">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AO86">
         <v>0</v>
@@ -16248,10 +16248,10 @@
         <v>0</v>
       </c>
       <c r="AQ86">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="AR86">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="AS86">
         <v>1.15</v>
@@ -17364,7 +17364,7 @@
         <v>0.92</v>
       </c>
       <c r="AY92">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AZ92">
         <v>0.8</v>
@@ -17373,7 +17373,7 @@
         <v>0.4</v>
       </c>
       <c r="BB92">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BC92">
         <v>0.67</v>
@@ -17546,7 +17546,7 @@
         <v>0.92</v>
       </c>
       <c r="AY93">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AZ93">
         <v>0.8</v>
@@ -17555,7 +17555,7 @@
         <v>0.4</v>
       </c>
       <c r="BB93">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="BC93">
         <v>0.67</v>

--- a/test/results/01.BasicCodonUsage/NS1/NS1.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/NS1/NS1.RSCU.xlsx
@@ -253,25 +253,25 @@
     <t>TAT</t>
   </si>
   <si>
+    <t>KU955594</t>
+  </si>
+  <si>
     <t>KF383118</t>
   </si>
   <si>
     <t>LC002520</t>
   </si>
   <si>
-    <t>KU955594</t>
-  </si>
-  <si>
     <t>KF383119</t>
   </si>
   <si>
-    <t>KF383115</t>
+    <t>KF268948</t>
   </si>
   <si>
     <t>KF268949</t>
   </si>
   <si>
-    <t>KF268948</t>
+    <t>KF383115</t>
   </si>
   <si>
     <t>KF268950</t>
@@ -283,10 +283,10 @@
     <t>KF383116</t>
   </si>
   <si>
-    <t>HQ234501</t>
+    <t>KU955595</t>
   </si>
   <si>
-    <t>KU955595</t>
+    <t>HQ234501</t>
   </si>
   <si>
     <t>KU955592</t>
@@ -295,16 +295,16 @@
     <t>KU955591</t>
   </si>
   <si>
+    <t>KF383117</t>
+  </si>
+  <si>
     <t>KX601166</t>
   </si>
   <si>
-    <t>KF383117</t>
+    <t>HQ234499</t>
   </si>
   <si>
     <t>KU681082</t>
-  </si>
-  <si>
-    <t>HQ234499</t>
   </si>
   <si>
     <t>EU545988</t>
@@ -313,10 +313,10 @@
     <t>KU955593</t>
   </si>
   <si>
-    <t>KX694532</t>
+    <t>KU681081</t>
   </si>
   <si>
-    <t>KU681081</t>
+    <t>KX694532</t>
   </si>
   <si>
     <t>KX813683</t>
@@ -325,10 +325,10 @@
     <t>KX447517</t>
   </si>
   <si>
-    <t>KU744693</t>
+    <t>KX197192</t>
   </si>
   <si>
-    <t>KX197192</t>
+    <t>KU744693</t>
   </si>
   <si>
     <t>KU321639</t>
@@ -349,10 +349,10 @@
     <t>KX673530</t>
   </si>
   <si>
-    <t>KX838904</t>
+    <t>KX832731</t>
   </si>
   <si>
-    <t>KX832731</t>
+    <t>KX838904</t>
   </si>
   <si>
     <t>KX838905</t>
@@ -376,10 +376,10 @@
     <t>KX056898</t>
   </si>
   <si>
-    <t>KU955590</t>
+    <t>KX766028</t>
   </si>
   <si>
-    <t>KX766028</t>
+    <t>KU955590</t>
   </si>
   <si>
     <t>KU740184</t>
@@ -400,28 +400,25 @@
     <t>KU758877</t>
   </si>
   <si>
+    <t>KU312312</t>
+  </si>
+  <si>
     <t>KU937936</t>
   </si>
   <si>
     <t>KU365779</t>
   </si>
   <si>
-    <t>KU312312</t>
+    <t>KU707826</t>
   </si>
   <si>
-    <t>KU707826</t>
+    <t>KU365780</t>
   </si>
   <si>
     <t>KU365777</t>
   </si>
   <si>
-    <t>KU365780</t>
-  </si>
-  <si>
     <t>KU870645</t>
-  </si>
-  <si>
-    <t>KX694534</t>
   </si>
   <si>
     <t>KX262887</t>
@@ -430,16 +427,19 @@
     <t>KU501217</t>
   </si>
   <si>
+    <t>KX694534</t>
+  </si>
+  <si>
     <t>KU501216</t>
   </si>
   <si>
     <t>KX766029</t>
   </si>
   <si>
-    <t>KX446950</t>
+    <t>KX247632</t>
   </si>
   <si>
-    <t>KX247632</t>
+    <t>KX446950</t>
   </si>
   <si>
     <t>KX446951</t>
@@ -448,16 +448,13 @@
     <t>KX520666</t>
   </si>
   <si>
+    <t>KU729218</t>
+  </si>
+  <si>
     <t>KU940228</t>
   </si>
   <si>
-    <t>KU729218</t>
-  </si>
-  <si>
     <t>KX197205</t>
-  </si>
-  <si>
-    <t>KU497555</t>
   </si>
   <si>
     <t>KU991811</t>
@@ -466,13 +463,13 @@
     <t>KX548902</t>
   </si>
   <si>
+    <t>KU497555</t>
+  </si>
+  <si>
     <t>KU647676</t>
   </si>
   <si>
     <t>KU922923</t>
-  </si>
-  <si>
-    <t>KX198135</t>
   </si>
   <si>
     <t>KU922960</t>
@@ -481,28 +478,31 @@
     <t>KX702400</t>
   </si>
   <si>
+    <t>KX198135</t>
+  </si>
+  <si>
+    <t>KX087102</t>
+  </si>
+  <si>
     <t>KX247646</t>
   </si>
   <si>
     <t>KU820897</t>
   </si>
   <si>
-    <t>KX087102</t>
+    <t>KX156775</t>
   </si>
   <si>
-    <t>KX156775</t>
+    <t>KX156776</t>
   </si>
   <si>
     <t>KX156774</t>
   </si>
   <si>
-    <t>KX447510</t>
+    <t>KX447511</t>
   </si>
   <si>
-    <t>KX156776</t>
-  </si>
-  <si>
-    <t>KX447511</t>
+    <t>KX447510</t>
   </si>
   <si>
     <t>KX369547</t>
@@ -529,10 +529,10 @@
     <t>KU820899</t>
   </si>
   <si>
-    <t>KX185891</t>
+    <t>KU963796</t>
   </si>
   <si>
-    <t>KU963796</t>
+    <t>KX185891</t>
   </si>
   <si>
     <t>KX806557</t>
@@ -1225,10 +1225,10 @@
         <v>0.8</v>
       </c>
       <c r="J4">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="K4">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L4">
         <v>0.67</v>
@@ -1249,10 +1249,10 @@
         <v>0.59</v>
       </c>
       <c r="R4">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="S4">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="T4">
         <v>0.6899999999999999</v>
@@ -1264,10 +1264,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W4">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="X4">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="Y4">
         <v>0.55</v>
@@ -1363,19 +1363,19 @@
         <v>0.53</v>
       </c>
       <c r="BD4">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="BE4">
         <v>1.33</v>
       </c>
       <c r="BF4">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="BG4">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="BH4">
-        <v>1</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5" spans="1:60">
@@ -1407,10 +1407,10 @@
         <v>0.8</v>
       </c>
       <c r="J5">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="K5">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
         <v>0.67</v>
@@ -1431,10 +1431,10 @@
         <v>0.59</v>
       </c>
       <c r="R5">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="S5">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="T5">
         <v>0.6899999999999999</v>
@@ -1446,10 +1446,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W5">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="X5">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Y5">
         <v>0.55</v>
@@ -1545,19 +1545,19 @@
         <v>0.53</v>
       </c>
       <c r="BD5">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="BE5">
         <v>1.33</v>
       </c>
       <c r="BF5">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="BG5">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="BH5">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:60">
@@ -1929,13 +1929,13 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D8">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E8">
         <v>0.8</v>
@@ -1947,16 +1947,16 @@
         <v>1.17</v>
       </c>
       <c r="H8">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="I8">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="J8">
+        <v>1.03</v>
+      </c>
+      <c r="K8">
         <v>0.97</v>
-      </c>
-      <c r="K8">
-        <v>1.03</v>
       </c>
       <c r="L8">
         <v>0.89</v>
@@ -1968,19 +1968,19 @@
         <v>1.33</v>
       </c>
       <c r="O8">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="P8">
         <v>1.33</v>
       </c>
       <c r="Q8">
-        <v>0.59</v>
+        <v>0.44</v>
       </c>
       <c r="R8">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="S8">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="T8">
         <v>0.75</v>
@@ -1992,28 +1992,28 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0.55</v>
+      </c>
+      <c r="Z8">
         <v>1.09</v>
       </c>
-      <c r="Y8">
-        <v>0.82</v>
-      </c>
-      <c r="Z8">
-        <v>0.82</v>
-      </c>
       <c r="AA8">
-        <v>1.91</v>
+        <v>2.45</v>
       </c>
       <c r="AB8">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="AC8">
         <v>0.82</v>
       </c>
       <c r="AD8">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -2025,19 +2025,19 @@
         <v>2.11</v>
       </c>
       <c r="AH8">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AI8">
         <v>0.21</v>
       </c>
       <c r="AJ8">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AM8">
         <v>3.36</v>
@@ -2064,19 +2064,19 @@
         <v>1.85</v>
       </c>
       <c r="AU8">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AV8">
         <v>0.6899999999999999</v>
       </c>
       <c r="AW8">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="AX8">
         <v>0.92</v>
       </c>
       <c r="AY8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AZ8">
         <v>0.8</v>
@@ -2085,7 +2085,7 @@
         <v>0.4</v>
       </c>
       <c r="BB8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BC8">
         <v>0.4</v>
@@ -2293,13 +2293,13 @@
         <v>85</v>
       </c>
       <c r="B10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="C10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
         <v>0.8</v>
@@ -2311,16 +2311,16 @@
         <v>1.17</v>
       </c>
       <c r="H10">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="I10">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="J10">
+        <v>0.97</v>
+      </c>
+      <c r="K10">
         <v>1.03</v>
-      </c>
-      <c r="K10">
-        <v>0.97</v>
       </c>
       <c r="L10">
         <v>0.89</v>
@@ -2332,19 +2332,19 @@
         <v>1.33</v>
       </c>
       <c r="O10">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
       <c r="P10">
         <v>1.33</v>
       </c>
       <c r="Q10">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="R10">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="S10">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="T10">
         <v>0.75</v>
@@ -2356,28 +2356,28 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="Y10">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
       <c r="Z10">
-        <v>1.09</v>
+        <v>0.82</v>
       </c>
       <c r="AA10">
-        <v>2.45</v>
+        <v>1.91</v>
       </c>
       <c r="AB10">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
       <c r="AC10">
         <v>0.82</v>
       </c>
       <c r="AD10">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
       <c r="AE10">
         <v>1</v>
@@ -2389,19 +2389,19 @@
         <v>2.11</v>
       </c>
       <c r="AH10">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AI10">
         <v>0.21</v>
       </c>
       <c r="AJ10">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
       <c r="AK10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM10">
         <v>3.36</v>
@@ -2428,19 +2428,19 @@
         <v>1.85</v>
       </c>
       <c r="AU10">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="AV10">
         <v>0.6899999999999999</v>
       </c>
       <c r="AW10">
-        <v>0.46</v>
+        <v>0.23</v>
       </c>
       <c r="AX10">
         <v>0.92</v>
       </c>
       <c r="AY10">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AZ10">
         <v>0.8</v>
@@ -2449,7 +2449,7 @@
         <v>0.4</v>
       </c>
       <c r="BB10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BC10">
         <v>0.4</v>
@@ -3021,16 +3021,16 @@
         <v>89</v>
       </c>
       <c r="B14">
-        <v>2.11</v>
+        <v>1.68</v>
       </c>
       <c r="C14">
         <v>0.63</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="E14">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3069,10 +3069,10 @@
         <v>0.59</v>
       </c>
       <c r="R14">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="S14">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="T14">
         <v>0.92</v>
@@ -3090,22 +3090,22 @@
         <v>1.18</v>
       </c>
       <c r="Y14">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="Z14">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="AA14">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="AB14">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="AC14">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="AD14">
-        <v>0.78</v>
+        <v>0.55</v>
       </c>
       <c r="AE14">
         <v>1</v>
@@ -3156,16 +3156,16 @@
         <v>1.62</v>
       </c>
       <c r="AU14">
-        <v>0.6899999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AV14">
+        <v>1.15</v>
+      </c>
+      <c r="AW14">
         <v>0.92</v>
       </c>
-      <c r="AW14">
-        <v>1.15</v>
-      </c>
       <c r="AX14">
-        <v>0.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AY14">
         <v>2</v>
@@ -3180,16 +3180,16 @@
         <v>0.8</v>
       </c>
       <c r="BC14">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="BD14">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="BE14">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="BF14">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="BG14">
         <v>1.5</v>
@@ -3203,16 +3203,16 @@
         <v>90</v>
       </c>
       <c r="B15">
-        <v>1.68</v>
+        <v>2.11</v>
       </c>
       <c r="C15">
         <v>0.63</v>
       </c>
       <c r="D15">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3251,10 +3251,10 @@
         <v>0.59</v>
       </c>
       <c r="R15">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="S15">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="T15">
         <v>0.92</v>
@@ -3272,22 +3272,22 @@
         <v>1.18</v>
       </c>
       <c r="Y15">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="Z15">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AA15">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="AB15">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="AC15">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="AD15">
-        <v>0.55</v>
+        <v>0.78</v>
       </c>
       <c r="AE15">
         <v>1</v>
@@ -3338,16 +3338,16 @@
         <v>1.62</v>
       </c>
       <c r="AU15">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AV15">
         <v>0.92</v>
       </c>
-      <c r="AV15">
+      <c r="AW15">
         <v>1.15</v>
       </c>
-      <c r="AW15">
+      <c r="AX15">
         <v>0.92</v>
-      </c>
-      <c r="AX15">
-        <v>0.6899999999999999</v>
       </c>
       <c r="AY15">
         <v>2</v>
@@ -3362,16 +3362,16 @@
         <v>0.8</v>
       </c>
       <c r="BC15">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="BD15">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="BE15">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="BF15">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="BG15">
         <v>1.5</v>
@@ -3752,19 +3752,19 @@
         <v>1.68</v>
       </c>
       <c r="C18">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="D18">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="E18">
-        <v>1.47</v>
+        <v>1.05</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="H18">
         <v>1.33</v>
@@ -3773,67 +3773,67 @@
         <v>0.67</v>
       </c>
       <c r="J18">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="K18">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="L18">
+        <v>0.89</v>
+      </c>
+      <c r="M18">
         <v>1.11</v>
       </c>
-      <c r="M18">
-        <v>0.89</v>
-      </c>
       <c r="N18">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="O18">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="P18">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="Q18">
-        <v>0.59</v>
+        <v>0.46</v>
       </c>
       <c r="R18">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="S18">
-        <v>0.83</v>
+        <v>0.55</v>
       </c>
       <c r="T18">
-        <v>0.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="U18">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="V18">
-        <v>0.6899999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="W18">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="X18">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="Y18">
+        <v>0.82</v>
+      </c>
+      <c r="Z18">
+        <v>0.55</v>
+      </c>
+      <c r="AA18">
+        <v>1.91</v>
+      </c>
+      <c r="AB18">
         <v>1.09</v>
       </c>
-      <c r="Z18">
-        <v>0.82</v>
-      </c>
-      <c r="AA18">
-        <v>2.45</v>
-      </c>
-      <c r="AB18">
-        <v>0.55</v>
-      </c>
       <c r="AC18">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
       <c r="AD18">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
       <c r="AE18">
         <v>1</v>
@@ -3845,37 +3845,37 @@
         <v>2.11</v>
       </c>
       <c r="AH18">
-        <v>0.84</v>
+        <v>1.47</v>
       </c>
       <c r="AI18">
         <v>0.21</v>
       </c>
       <c r="AJ18">
-        <v>0.84</v>
+        <v>0.21</v>
       </c>
       <c r="AK18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AM18">
-        <v>3.12</v>
+        <v>2.88</v>
       </c>
       <c r="AN18">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AP18">
         <v>0.24</v>
       </c>
       <c r="AQ18">
-        <v>0.72</v>
+        <v>0.24</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AS18">
         <v>0.6899999999999999</v>
@@ -3884,46 +3884,46 @@
         <v>1.62</v>
       </c>
       <c r="AU18">
-        <v>0.92</v>
+        <v>1.15</v>
       </c>
       <c r="AV18">
-        <v>1.15</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AW18">
         <v>0.92</v>
       </c>
       <c r="AX18">
-        <v>0.6899999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AY18">
         <v>2</v>
       </c>
       <c r="AZ18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BA18">
         <v>0.4</v>
       </c>
       <c r="BB18">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="BC18">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="BD18">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="BE18">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="BF18">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="BG18">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="BH18">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="19" spans="1:60">
@@ -3934,88 +3934,88 @@
         <v>1.68</v>
       </c>
       <c r="C19">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="D19">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="E19">
-        <v>1.05</v>
+        <v>1.47</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1.33</v>
+      </c>
+      <c r="I19">
+        <v>0.67</v>
+      </c>
+      <c r="J19">
+        <v>0.8</v>
+      </c>
+      <c r="K19">
+        <v>1.2</v>
+      </c>
+      <c r="L19">
+        <v>1.11</v>
+      </c>
+      <c r="M19">
+        <v>0.89</v>
+      </c>
+      <c r="N19">
+        <v>1.33</v>
+      </c>
+      <c r="O19">
+        <v>0.59</v>
+      </c>
+      <c r="P19">
+        <v>1.48</v>
+      </c>
+      <c r="Q19">
+        <v>0.59</v>
+      </c>
+      <c r="R19">
+        <v>1.17</v>
+      </c>
+      <c r="S19">
+        <v>0.83</v>
+      </c>
+      <c r="T19">
         <v>0.92</v>
       </c>
-      <c r="G19">
-        <v>1.08</v>
-      </c>
-      <c r="H19">
-        <v>1.33</v>
-      </c>
-      <c r="I19">
-        <v>0.67</v>
-      </c>
-      <c r="J19">
-        <v>0.91</v>
-      </c>
-      <c r="K19">
+      <c r="U19">
+        <v>1.38</v>
+      </c>
+      <c r="V19">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W19">
+        <v>0.82</v>
+      </c>
+      <c r="X19">
+        <v>1.18</v>
+      </c>
+      <c r="Y19">
         <v>1.09</v>
       </c>
-      <c r="L19">
-        <v>0.89</v>
-      </c>
-      <c r="M19">
-        <v>1.11</v>
-      </c>
-      <c r="N19">
-        <v>1.38</v>
-      </c>
-      <c r="O19">
-        <v>0.62</v>
-      </c>
-      <c r="P19">
-        <v>1.54</v>
-      </c>
-      <c r="Q19">
-        <v>0.46</v>
-      </c>
-      <c r="R19">
-        <v>1.45</v>
-      </c>
-      <c r="S19">
+      <c r="Z19">
+        <v>0.82</v>
+      </c>
+      <c r="AA19">
+        <v>2.45</v>
+      </c>
+      <c r="AB19">
         <v>0.55</v>
       </c>
-      <c r="T19">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="U19">
-        <v>1.15</v>
-      </c>
-      <c r="V19">
-        <v>1.15</v>
-      </c>
-      <c r="W19">
-        <v>0.91</v>
-      </c>
-      <c r="X19">
-        <v>1.09</v>
-      </c>
-      <c r="Y19">
-        <v>0.82</v>
-      </c>
-      <c r="Z19">
+      <c r="AC19">
         <v>0.55</v>
       </c>
-      <c r="AA19">
-        <v>1.91</v>
-      </c>
-      <c r="AB19">
-        <v>1.09</v>
-      </c>
-      <c r="AC19">
-        <v>0.82</v>
-      </c>
       <c r="AD19">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="AE19">
         <v>1</v>
@@ -4027,37 +4027,37 @@
         <v>2.11</v>
       </c>
       <c r="AH19">
-        <v>1.47</v>
+        <v>0.84</v>
       </c>
       <c r="AI19">
         <v>0.21</v>
       </c>
       <c r="AJ19">
-        <v>0.21</v>
+        <v>0.84</v>
       </c>
       <c r="AK19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AL19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM19">
-        <v>2.88</v>
+        <v>3.12</v>
       </c>
       <c r="AN19">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="AO19">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AP19">
         <v>0.24</v>
       </c>
       <c r="AQ19">
-        <v>0.24</v>
+        <v>0.72</v>
       </c>
       <c r="AR19">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AS19">
         <v>0.6899999999999999</v>
@@ -4066,46 +4066,46 @@
         <v>1.62</v>
       </c>
       <c r="AU19">
+        <v>0.92</v>
+      </c>
+      <c r="AV19">
         <v>1.15</v>
-      </c>
-      <c r="AV19">
-        <v>0.6899999999999999</v>
       </c>
       <c r="AW19">
         <v>0.92</v>
       </c>
       <c r="AX19">
-        <v>0.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AY19">
         <v>2</v>
       </c>
       <c r="AZ19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BA19">
         <v>0.4</v>
       </c>
       <c r="BB19">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="BC19">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="BD19">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="BE19">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="BF19">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="BG19">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="BH19">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:60">
@@ -4113,22 +4113,22 @@
         <v>95</v>
       </c>
       <c r="B20">
-        <v>1.89</v>
+        <v>2.11</v>
       </c>
       <c r="C20">
+        <v>1.05</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>0.84</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1.26</v>
-      </c>
       <c r="F20">
+        <v>0.83</v>
+      </c>
+      <c r="G20">
         <v>1.17</v>
-      </c>
-      <c r="G20">
-        <v>0.83</v>
       </c>
       <c r="H20">
         <v>0.75</v>
@@ -4137,10 +4137,10 @@
         <v>1.25</v>
       </c>
       <c r="J20">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="K20">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L20">
         <v>0.89</v>
@@ -4149,31 +4149,31 @@
         <v>1.11</v>
       </c>
       <c r="N20">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="O20">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="P20">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="Q20">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="R20">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="S20">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="T20">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="U20">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="V20">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W20">
         <v>0.64</v>
@@ -4182,19 +4182,19 @@
         <v>1.36</v>
       </c>
       <c r="Y20">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="Z20">
-        <v>1.09</v>
+        <v>0.82</v>
       </c>
       <c r="AA20">
         <v>2.45</v>
       </c>
       <c r="AB20">
+        <v>0.82</v>
+      </c>
+      <c r="AC20">
         <v>0.55</v>
-      </c>
-      <c r="AC20">
-        <v>0.82</v>
       </c>
       <c r="AD20">
         <v>0.82</v>
@@ -4206,46 +4206,46 @@
         <v>0.33</v>
       </c>
       <c r="AG20">
-        <v>2.11</v>
+        <v>1.26</v>
       </c>
       <c r="AH20">
-        <v>1.26</v>
+        <v>0.84</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="AJ20">
-        <v>0.63</v>
+        <v>1.05</v>
       </c>
       <c r="AK20">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AL20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM20">
+        <v>2.4</v>
+      </c>
+      <c r="AN20">
         <v>2.88</v>
       </c>
-      <c r="AN20">
-        <v>2.4</v>
-      </c>
       <c r="AO20">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AP20">
         <v>0</v>
       </c>
       <c r="AQ20">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="AR20">
         <v>0.24</v>
       </c>
       <c r="AS20">
-        <v>1.15</v>
+        <v>0.92</v>
       </c>
       <c r="AT20">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AU20">
         <v>1.38</v>
@@ -4260,34 +4260,34 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AY20">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AZ20">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="BA20">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="BB20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BC20">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="BD20">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="BE20">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="BF20">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="BG20">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="BH20">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:60">
@@ -4295,22 +4295,22 @@
         <v>96</v>
       </c>
       <c r="B21">
-        <v>2.11</v>
+        <v>1.89</v>
       </c>
       <c r="C21">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.84</v>
+        <v>1.26</v>
       </c>
       <c r="F21">
+        <v>1.17</v>
+      </c>
+      <c r="G21">
         <v>0.83</v>
-      </c>
-      <c r="G21">
-        <v>1.17</v>
       </c>
       <c r="H21">
         <v>0.75</v>
@@ -4319,10 +4319,10 @@
         <v>1.25</v>
       </c>
       <c r="J21">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="K21">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="L21">
         <v>0.89</v>
@@ -4331,31 +4331,31 @@
         <v>1.11</v>
       </c>
       <c r="N21">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="O21">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="P21">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="Q21">
-        <v>0.59</v>
+        <v>0.44</v>
       </c>
       <c r="R21">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="S21">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="T21">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="U21">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="V21">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="W21">
         <v>0.64</v>
@@ -4364,19 +4364,19 @@
         <v>1.36</v>
       </c>
       <c r="Y21">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="Z21">
-        <v>0.82</v>
+        <v>1.09</v>
       </c>
       <c r="AA21">
         <v>2.45</v>
       </c>
       <c r="AB21">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="AC21">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
       <c r="AD21">
         <v>0.82</v>
@@ -4388,46 +4388,46 @@
         <v>0.33</v>
       </c>
       <c r="AG21">
+        <v>2.11</v>
+      </c>
+      <c r="AH21">
         <v>1.26</v>
       </c>
-      <c r="AH21">
-        <v>0.84</v>
-      </c>
       <c r="AI21">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
-        <v>1.05</v>
+        <v>0.63</v>
       </c>
       <c r="AK21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AM21">
+        <v>2.88</v>
+      </c>
+      <c r="AN21">
         <v>2.4</v>
       </c>
-      <c r="AN21">
-        <v>2.88</v>
-      </c>
       <c r="AO21">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AP21">
         <v>0</v>
       </c>
       <c r="AQ21">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="AR21">
         <v>0.24</v>
       </c>
       <c r="AS21">
-        <v>0.92</v>
+        <v>1.15</v>
       </c>
       <c r="AT21">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AU21">
         <v>1.38</v>
@@ -4442,34 +4442,34 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AY21">
+        <v>2.2</v>
+      </c>
+      <c r="AZ21">
+        <v>0.4</v>
+      </c>
+      <c r="BA21">
+        <v>0.4</v>
+      </c>
+      <c r="BB21">
+        <v>1</v>
+      </c>
+      <c r="BC21">
+        <v>0.67</v>
+      </c>
+      <c r="BD21">
+        <v>1.2</v>
+      </c>
+      <c r="BE21">
         <v>1.6</v>
       </c>
-      <c r="AZ21">
-        <v>0.8</v>
-      </c>
-      <c r="BA21">
-        <v>0.8</v>
-      </c>
-      <c r="BB21">
-        <v>0.8</v>
-      </c>
-      <c r="BC21">
+      <c r="BF21">
         <v>0.53</v>
       </c>
-      <c r="BD21">
-        <v>1.07</v>
-      </c>
-      <c r="BE21">
-        <v>1.73</v>
-      </c>
-      <c r="BF21">
-        <v>0.67</v>
-      </c>
       <c r="BG21">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="BH21">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:60">
@@ -4841,22 +4841,22 @@
         <v>99</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="C24">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="F24">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="G24">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="H24">
         <v>0.75</v>
@@ -4877,7 +4877,7 @@
         <v>0.89</v>
       </c>
       <c r="N24">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="O24">
         <v>0.74</v>
@@ -4886,7 +4886,7 @@
         <v>1.33</v>
       </c>
       <c r="Q24">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="R24">
         <v>1.33</v>
@@ -4904,13 +4904,13 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W24">
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
       <c r="X24">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="Y24">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="Z24">
         <v>1.09</v>
@@ -4922,7 +4922,7 @@
         <v>0.55</v>
       </c>
       <c r="AC24">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="AD24">
         <v>0.82</v>
@@ -4952,10 +4952,10 @@
         <v>0.5</v>
       </c>
       <c r="AM24">
-        <v>3.12</v>
+        <v>2.77</v>
       </c>
       <c r="AN24">
-        <v>2.16</v>
+        <v>2.54</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -4964,16 +4964,16 @@
         <v>0</v>
       </c>
       <c r="AQ24">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="AR24">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AS24">
-        <v>1.15</v>
+        <v>0.92</v>
       </c>
       <c r="AT24">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AU24">
         <v>1.38</v>
@@ -5000,22 +5000,22 @@
         <v>0.8</v>
       </c>
       <c r="BC24">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="BD24">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="BE24">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="BF24">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="BG24">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="BH24">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="25" spans="1:60">
@@ -5023,22 +5023,22 @@
         <v>100</v>
       </c>
       <c r="B25">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="F25">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="G25">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="H25">
         <v>0.75</v>
@@ -5059,7 +5059,7 @@
         <v>0.89</v>
       </c>
       <c r="N25">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="O25">
         <v>0.74</v>
@@ -5068,7 +5068,7 @@
         <v>1.33</v>
       </c>
       <c r="Q25">
-        <v>0.59</v>
+        <v>0.44</v>
       </c>
       <c r="R25">
         <v>1.33</v>
@@ -5086,13 +5086,13 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W25">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="X25">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="Y25">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="Z25">
         <v>1.09</v>
@@ -5104,7 +5104,7 @@
         <v>0.55</v>
       </c>
       <c r="AC25">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
       <c r="AD25">
         <v>0.82</v>
@@ -5134,10 +5134,10 @@
         <v>0.5</v>
       </c>
       <c r="AM25">
-        <v>2.77</v>
+        <v>3.12</v>
       </c>
       <c r="AN25">
-        <v>2.54</v>
+        <v>2.16</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -5146,16 +5146,16 @@
         <v>0</v>
       </c>
       <c r="AQ25">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="AR25">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="AS25">
-        <v>0.92</v>
+        <v>1.15</v>
       </c>
       <c r="AT25">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AU25">
         <v>1.38</v>
@@ -5182,22 +5182,22 @@
         <v>0.8</v>
       </c>
       <c r="BC25">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="BD25">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="BE25">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="BF25">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="BG25">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="BH25">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:60">
@@ -5569,28 +5569,28 @@
         <v>103</v>
       </c>
       <c r="B28">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>1.05</v>
+        <v>0.89</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="F28">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="G28">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="H28">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="I28">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="J28">
         <v>0.9399999999999999</v>
@@ -5605,7 +5605,7 @@
         <v>0.89</v>
       </c>
       <c r="N28">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="O28">
         <v>0.71</v>
@@ -5614,13 +5614,13 @@
         <v>1.29</v>
       </c>
       <c r="Q28">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="R28">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="S28">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="T28">
         <v>0.6899999999999999</v>
@@ -5674,16 +5674,16 @@
         <v>0.42</v>
       </c>
       <c r="AK28">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AL28">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AM28">
-        <v>3.13</v>
+        <v>2.75</v>
       </c>
       <c r="AN28">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="AQ28">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AS28">
         <v>1.15</v>
@@ -5704,28 +5704,28 @@
         <v>1.15</v>
       </c>
       <c r="AU28">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AV28">
-        <v>1.15</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AW28">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AX28">
         <v>0.92</v>
       </c>
       <c r="AY28">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="AZ28">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
       <c r="BA28">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="BB28">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="BC28">
         <v>0.67</v>
@@ -5740,10 +5740,10 @@
         <v>0.93</v>
       </c>
       <c r="BG28">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="BH28">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="29" spans="1:60">
@@ -5751,28 +5751,28 @@
         <v>104</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="C29">
-        <v>0.89</v>
+        <v>1.05</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="F29">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="G29">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="H29">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I29">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="J29">
         <v>0.9399999999999999</v>
@@ -5787,7 +5787,7 @@
         <v>0.89</v>
       </c>
       <c r="N29">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="O29">
         <v>0.71</v>
@@ -5796,13 +5796,13 @@
         <v>1.29</v>
       </c>
       <c r="Q29">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="R29">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="S29">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="T29">
         <v>0.6899999999999999</v>
@@ -5856,16 +5856,16 @@
         <v>0.42</v>
       </c>
       <c r="AK29">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AL29">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AM29">
-        <v>2.75</v>
+        <v>3.13</v>
       </c>
       <c r="AN29">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -5874,10 +5874,10 @@
         <v>0</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
       <c r="AR29">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="AS29">
         <v>1.15</v>
@@ -5886,28 +5886,28 @@
         <v>1.15</v>
       </c>
       <c r="AU29">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AV29">
-        <v>0.6899999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AW29">
-        <v>0.6899999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="AX29">
         <v>0.92</v>
       </c>
       <c r="AY29">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="AZ29">
-        <v>0.6</v>
+        <v>0.42</v>
       </c>
       <c r="BA29">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="BB29">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="BC29">
         <v>0.67</v>
@@ -5922,10 +5922,10 @@
         <v>0.93</v>
       </c>
       <c r="BG29">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="BH29">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="1:60">
@@ -8750,10 +8750,10 @@
         <v>0.82</v>
       </c>
       <c r="AE45">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AF45">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AG45">
         <v>2.11</v>
@@ -8932,10 +8932,10 @@
         <v>0.82</v>
       </c>
       <c r="AE46">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AF46">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AG46">
         <v>2.11</v>
@@ -10119,22 +10119,22 @@
         <v>128</v>
       </c>
       <c r="B53">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="C53">
         <v>0.89</v>
       </c>
       <c r="D53">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>1.11</v>
       </c>
       <c r="F53">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="G53">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="H53">
         <v>0.75</v>
@@ -10230,10 +10230,10 @@
         <v>0.5</v>
       </c>
       <c r="AM53">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="AN53">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AO53">
         <v>0</v>
@@ -10242,37 +10242,37 @@
         <v>0</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="AR53">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AS53">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AT53">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AU53">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AV53">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AW53">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AX53">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="AY53">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AZ53">
         <v>0.6</v>
       </c>
       <c r="BA53">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="BB53">
         <v>0.8</v>
@@ -10290,10 +10290,10 @@
         <v>0.93</v>
       </c>
       <c r="BG53">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="BH53">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="54" spans="1:60">
@@ -10301,22 +10301,22 @@
         <v>129</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="C54">
         <v>0.89</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E54">
         <v>1.11</v>
       </c>
       <c r="F54">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="G54">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="H54">
         <v>0.75</v>
@@ -10412,10 +10412,10 @@
         <v>0.5</v>
       </c>
       <c r="AM54">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="AN54">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AO54">
         <v>0</v>
@@ -10424,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="AQ54">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="AS54">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AT54">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AU54">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AV54">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AW54">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AX54">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AY54">
         <v>2.2</v>
@@ -10472,10 +10472,10 @@
         <v>0.93</v>
       </c>
       <c r="BG54">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="BH54">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:60">
@@ -10630,13 +10630,13 @@
         <v>0.92</v>
       </c>
       <c r="AY55">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AZ55">
         <v>0.6</v>
       </c>
       <c r="BA55">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BB55">
         <v>0.8</v>
@@ -11522,22 +11522,22 @@
         <v>0.24</v>
       </c>
       <c r="AS60">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AT60">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AU60">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AV60">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AW60">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AX60">
-        <v>1.11</v>
+        <v>0.92</v>
       </c>
       <c r="AY60">
         <v>2.2</v>
@@ -11564,10 +11564,10 @@
         <v>0.93</v>
       </c>
       <c r="BG60">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="BH60">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="61" spans="1:60">
@@ -11886,22 +11886,22 @@
         <v>0.24</v>
       </c>
       <c r="AS62">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AT62">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AU62">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AV62">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AW62">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AX62">
-        <v>0.92</v>
+        <v>1.11</v>
       </c>
       <c r="AY62">
         <v>2.2</v>
@@ -11928,10 +11928,10 @@
         <v>0.93</v>
       </c>
       <c r="BG62">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="BH62">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="63" spans="1:60">
@@ -12327,10 +12327,10 @@
         <v>1.25</v>
       </c>
       <c r="J65">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K65">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="L65">
         <v>1.33</v>
@@ -12366,10 +12366,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W65">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="X65">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="Y65">
         <v>0.27</v>
@@ -12509,10 +12509,10 @@
         <v>1.25</v>
       </c>
       <c r="J66">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="K66">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="L66">
         <v>1.33</v>
@@ -12548,10 +12548,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W66">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="X66">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="Y66">
         <v>0.27</v>
@@ -13589,10 +13589,10 @@
         <v>1.11</v>
       </c>
       <c r="F72">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>0.75</v>
@@ -13601,10 +13601,10 @@
         <v>1.25</v>
       </c>
       <c r="J72">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="K72">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="L72">
         <v>1.11</v>
@@ -13640,22 +13640,22 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W72">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="X72">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="Y72">
         <v>0.27</v>
       </c>
       <c r="Z72">
-        <v>0.82</v>
+        <v>1.09</v>
       </c>
       <c r="AA72">
         <v>2.45</v>
       </c>
       <c r="AB72">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="AC72">
         <v>0.82</v>
@@ -13664,10 +13664,10 @@
         <v>0.82</v>
       </c>
       <c r="AE72">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AF72">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AG72">
         <v>2.11</v>
@@ -13715,13 +13715,13 @@
         <v>1.38</v>
       </c>
       <c r="AV72">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AW72">
         <v>0.6899999999999999</v>
       </c>
       <c r="AX72">
-        <v>1.15</v>
+        <v>0.92</v>
       </c>
       <c r="AY72">
         <v>2.2</v>
@@ -13771,10 +13771,10 @@
         <v>1.11</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="H73">
         <v>0.75</v>
@@ -13783,10 +13783,10 @@
         <v>1.25</v>
       </c>
       <c r="J73">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K73">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="L73">
         <v>1.11</v>
@@ -13807,10 +13807,10 @@
         <v>0.59</v>
       </c>
       <c r="R73">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="S73">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="T73">
         <v>0.6899999999999999</v>
@@ -13822,34 +13822,34 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W73">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="X73">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="Y73">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="Z73">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="AA73">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="AB73">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="AC73">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AD73">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AE73">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AF73">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AG73">
         <v>2.11</v>
@@ -13870,10 +13870,10 @@
         <v>0.5</v>
       </c>
       <c r="AM73">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AN73">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AO73">
         <v>0</v>
@@ -13882,10 +13882,10 @@
         <v>0</v>
       </c>
       <c r="AQ73">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="AR73">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="AS73">
         <v>1.15</v>
@@ -13906,16 +13906,16 @@
         <v>0.92</v>
       </c>
       <c r="AY73">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="AZ73">
-        <v>0.6</v>
+        <v>0.42</v>
       </c>
       <c r="BA73">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="BB73">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="BC73">
         <v>0.67</v>
@@ -13930,10 +13930,10 @@
         <v>0.93</v>
       </c>
       <c r="BG73">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="BH73">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="74" spans="1:60">
@@ -13989,10 +13989,10 @@
         <v>0.59</v>
       </c>
       <c r="R74">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="S74">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="T74">
         <v>0.6899999999999999</v>
@@ -14010,22 +14010,22 @@
         <v>1.36</v>
       </c>
       <c r="Y74">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="Z74">
-        <v>1.3</v>
+        <v>0.82</v>
       </c>
       <c r="AA74">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="AB74">
-        <v>0.52</v>
+        <v>0.82</v>
       </c>
       <c r="AC74">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="AD74">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="AE74">
         <v>1.33</v>
@@ -14052,10 +14052,10 @@
         <v>0.5</v>
       </c>
       <c r="AM74">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AN74">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AO74">
         <v>0</v>
@@ -14064,10 +14064,10 @@
         <v>0</v>
       </c>
       <c r="AQ74">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="AR74">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AS74">
         <v>1.15</v>
@@ -14079,25 +14079,25 @@
         <v>1.38</v>
       </c>
       <c r="AV74">
-        <v>0.6899999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="AW74">
         <v>0.6899999999999999</v>
       </c>
       <c r="AX74">
-        <v>0.92</v>
+        <v>1.15</v>
       </c>
       <c r="AY74">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="AZ74">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
       <c r="BA74">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="BB74">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="BC74">
         <v>0.67</v>
@@ -14112,10 +14112,10 @@
         <v>0.93</v>
       </c>
       <c r="BG74">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="BH74">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="75" spans="1:60">
@@ -14550,10 +14550,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W77">
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
       <c r="X77">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="Y77">
         <v>0.27</v>
@@ -14762,16 +14762,16 @@
         <v>0.67</v>
       </c>
       <c r="AG78">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AH78">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AI78">
         <v>0</v>
       </c>
       <c r="AJ78">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AK78">
         <v>1.5</v>
@@ -14816,16 +14816,16 @@
         <v>0.92</v>
       </c>
       <c r="AY78">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="AZ78">
-        <v>0.6</v>
+        <v>0.42</v>
       </c>
       <c r="BA78">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="BB78">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="BC78">
         <v>0.67</v>
@@ -14914,10 +14914,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W79">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="X79">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="Y79">
         <v>0.27</v>
@@ -14944,16 +14944,16 @@
         <v>0.67</v>
       </c>
       <c r="AG79">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AH79">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AI79">
         <v>0</v>
       </c>
       <c r="AJ79">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="AK79">
         <v>1.5</v>
@@ -14998,16 +14998,16 @@
         <v>0.92</v>
       </c>
       <c r="AY79">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="AZ79">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
       <c r="BA79">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="BB79">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="BC79">
         <v>0.67</v>
@@ -15785,10 +15785,10 @@
         <v>1.25</v>
       </c>
       <c r="J84">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="K84">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="L84">
         <v>1.11</v>
@@ -15824,10 +15824,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W84">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="X84">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="Y84">
         <v>0.27</v>
@@ -15932,10 +15932,10 @@
         <v>0.93</v>
       </c>
       <c r="BG84">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="BH84">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="85" spans="1:60">
@@ -15955,10 +15955,10 @@
         <v>1.11</v>
       </c>
       <c r="F85">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="G85">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="H85">
         <v>0.75</v>
@@ -16054,10 +16054,10 @@
         <v>0.5</v>
       </c>
       <c r="AM85">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AN85">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AO85">
         <v>0</v>
@@ -16066,10 +16066,10 @@
         <v>0</v>
       </c>
       <c r="AQ85">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="AR85">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="AS85">
         <v>1.15</v>
@@ -16114,10 +16114,10 @@
         <v>0.93</v>
       </c>
       <c r="BG85">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="BH85">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:60">
@@ -16149,16 +16149,16 @@
         <v>1.25</v>
       </c>
       <c r="J86">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K86">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="L86">
+        <v>0.89</v>
+      </c>
+      <c r="M86">
         <v>1.11</v>
-      </c>
-      <c r="M86">
-        <v>0.89</v>
       </c>
       <c r="N86">
         <v>1.33</v>
@@ -16188,28 +16188,28 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W86">
+        <v>0.64</v>
+      </c>
+      <c r="X86">
+        <v>1.36</v>
+      </c>
+      <c r="Y86">
         <v>0.57</v>
       </c>
-      <c r="X86">
-        <v>1.43</v>
-      </c>
-      <c r="Y86">
-        <v>0.27</v>
-      </c>
       <c r="Z86">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AA86">
-        <v>2.45</v>
+        <v>2.29</v>
       </c>
       <c r="AB86">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="AC86">
-        <v>0.82</v>
+        <v>0.57</v>
       </c>
       <c r="AD86">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="AE86">
         <v>1.33</v>
@@ -16236,10 +16236,10 @@
         <v>0.5</v>
       </c>
       <c r="AM86">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AN86">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AO86">
         <v>0</v>
@@ -16248,28 +16248,28 @@
         <v>0</v>
       </c>
       <c r="AQ86">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="AR86">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AS86">
-        <v>1.15</v>
+        <v>0.89</v>
       </c>
       <c r="AT86">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AU86">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AV86">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AW86">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AX86">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AY86">
         <v>2.2</v>
@@ -16319,10 +16319,10 @@
         <v>1.11</v>
       </c>
       <c r="F87">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="G87">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="H87">
         <v>0.75</v>
@@ -16337,10 +16337,10 @@
         <v>1.06</v>
       </c>
       <c r="L87">
+        <v>1.11</v>
+      </c>
+      <c r="M87">
         <v>0.89</v>
-      </c>
-      <c r="M87">
-        <v>1.11</v>
       </c>
       <c r="N87">
         <v>1.33</v>
@@ -16376,22 +16376,22 @@
         <v>1.36</v>
       </c>
       <c r="Y87">
-        <v>0.57</v>
+        <v>0.27</v>
       </c>
       <c r="Z87">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AA87">
-        <v>2.29</v>
+        <v>2.45</v>
       </c>
       <c r="AB87">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="AC87">
-        <v>0.57</v>
+        <v>0.82</v>
       </c>
       <c r="AD87">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AE87">
         <v>1.33</v>
@@ -16436,22 +16436,22 @@
         <v>0.24</v>
       </c>
       <c r="AS87">
-        <v>0.89</v>
+        <v>1.15</v>
       </c>
       <c r="AT87">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AU87">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AV87">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AW87">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AX87">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="AY87">
         <v>2.2</v>
